--- a/fuentes/contenidos/grado07/guion08/SolicitudGrafica_LE_07_08_REC220.xlsx
+++ b/fuentes/contenidos/grado07/guion08/SolicitudGrafica_LE_07_08_REC220.xlsx
@@ -593,9 +593,6 @@
     <t>Luis Felipe Pertuz</t>
   </si>
   <si>
-    <t>LE_07_06_REC10</t>
-  </si>
-  <si>
     <t>La novela gótica</t>
   </si>
   <si>
@@ -603,6 +600,9 @@
   </si>
   <si>
     <t>Caricatura Gandhi</t>
+  </si>
+  <si>
+    <t>LE_07_08_REC220</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2382,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2489,7 +2489,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2578,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2681,14 +2681,14 @@
         <v>Recurso M12D</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_07_06_REC10_IMG01n.png</v>
+        <v>LE_07_08_REC220_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2696,14 +2696,14 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>LE_07_06_REC10_IMG01a.png</v>
+        <v>LE_07_08_REC220_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
